--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>sfaisalali309@gmail.com</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t xml:space="preserve">LG 65 inch 4K Ultra HD HDR Smart LED TV </t>
+  </si>
+  <si>
+    <t>Kaneez@2019</t>
+  </si>
+  <si>
+    <t>66 inch TV</t>
+  </si>
+  <si>
+    <t>Kaneez@2020</t>
+  </si>
+  <si>
+    <t>67 inch TV</t>
   </si>
 </sst>
 </file>
@@ -115,14 +127,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B27" sqref="B26:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -436,10 +447,9 @@
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" style="1"/>
     <col min="4" max="4" width="32.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -452,9 +462,8 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -465,6 +474,34 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
